--- a/solutions/google/cloud/landing-zone/presales/level-of-effort-estimate.xlsx
+++ b/solutions/google/cloud/landing-zone/presales/level-of-effort-estimate.xlsx
@@ -3375,7 +3375,7 @@
         </is>
       </c>
       <c r="E32" s="55">
-        <f>ROUND(SUM(E27:E55)*0.20,0)</f>
+        <f>ROUND(SUM(E3:E31)*0.20,0)</f>
         <v/>
       </c>
       <c r="F32" s="54">
@@ -3422,7 +3422,7 @@
         </is>
       </c>
       <c r="E33" s="49">
-        <f>ROUND(SUM(E27:E55)*0.25,0)</f>
+        <f>ROUND(SUM(E3:E32)*0.25,0)</f>
         <v/>
       </c>
       <c r="F33" s="48">
@@ -3463,7 +3463,7 @@
       </c>
       <c r="F34" s="54" t="inlineStr"/>
       <c r="G34" s="55">
-        <f>$G34+$G34+$G34+$G34+$G34+$G34+$G34+$G34+$G34+$G34+$G34+$G34+$G34+$G34+$G34+$G34+$G34+$G34+$G34+$G34+$G34+$G34+$G34+$G34+$G34+$G34+$G34+$G34+$G34+$G34+$G34</f>
+        <f>SUM(G3:G33)</f>
         <v/>
       </c>
       <c r="H34" s="55" t="inlineStr"/>
